--- a/BEMFSimulation/ExcelResults/PhaseVoltage5500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage5500.xlsx
@@ -408,13 +408,13 @@
         <v>3.03030303030303e-05</v>
       </c>
       <c r="B2">
-        <v>4.038441931594861</v>
+        <v>5.649134454761423</v>
       </c>
       <c r="C2">
-        <v>361.6860714046818</v>
+        <v>366.663539086273</v>
       </c>
       <c r="D2">
-        <v>-380.8895762155341</v>
+        <v>-390.0294771018317</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>6.06060606060606e-05</v>
       </c>
       <c r="B3">
-        <v>22.95279389343724</v>
+        <v>23.05822709174156</v>
       </c>
       <c r="C3">
-        <v>345.1063232890446</v>
+        <v>354.2372175693673</v>
       </c>
       <c r="D3">
-        <v>-376.3943074003941</v>
+        <v>-390.2229548604258</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>9.09090909090909e-05</v>
       </c>
       <c r="B4">
-        <v>68.56134097097653</v>
+        <v>68.22091459740263</v>
       </c>
       <c r="C4">
-        <v>316.9018966125132</v>
+        <v>331.689501079866</v>
       </c>
       <c r="D4">
-        <v>-361.0631989188547</v>
+        <v>-374.3758825617673</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001212121212121212</v>
       </c>
       <c r="B5">
-        <v>123.3528063935482</v>
+        <v>124.3297805275791</v>
       </c>
       <c r="C5">
-        <v>274.7440981450968</v>
+        <v>272.8072165550756</v>
       </c>
       <c r="D5">
-        <v>-348.9123040744194</v>
+        <v>-352.3859741908597</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001515151515151515</v>
       </c>
       <c r="B6">
-        <v>155.5164760870956</v>
+        <v>162.4195727589934</v>
       </c>
       <c r="C6">
-        <v>228.484462554925</v>
+        <v>232.7881004592508</v>
       </c>
       <c r="D6">
-        <v>-358.6389270554513</v>
+        <v>-372.6193998175054</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0001818181818181818</v>
       </c>
       <c r="B7">
-        <v>168.2717025851695</v>
+        <v>172.522062325287</v>
       </c>
       <c r="C7">
-        <v>200.8100893979717</v>
+        <v>208.0170906579543</v>
       </c>
       <c r="D7">
-        <v>-367.6819926861277</v>
+        <v>-379.8958817409905</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002121212121212121</v>
       </c>
       <c r="B8">
-        <v>182.4223651542069</v>
+        <v>182.6157530932045</v>
       </c>
       <c r="C8">
-        <v>191.2909785301649</v>
+        <v>195.8918313177319</v>
       </c>
       <c r="D8">
-        <v>-379.5885261876343</v>
+        <v>-383.6253347064692</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002424242424242424</v>
       </c>
       <c r="B9">
-        <v>191.4448399018626</v>
+        <v>194.7015691951198</v>
       </c>
       <c r="C9">
-        <v>183.017510809437</v>
+        <v>184.5104346919196</v>
       </c>
       <c r="D9">
-        <v>-380.9256757030411</v>
+        <v>-384.374761761999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0002727272727272727</v>
       </c>
       <c r="B10">
-        <v>200.5856230339393</v>
+        <v>207.172401682046</v>
       </c>
       <c r="C10">
-        <v>168.4804834129293</v>
+        <v>171.1384096255267</v>
       </c>
       <c r="D10">
-        <v>-368.9398432909184</v>
+        <v>-377.1043955865823</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.000303030303030303</v>
       </c>
       <c r="B11">
-        <v>228.0082407731124</v>
+        <v>235.8046477361228</v>
       </c>
       <c r="C11">
-        <v>155.996898423739</v>
+        <v>163.4632595250248</v>
       </c>
       <c r="D11">
-        <v>-360.0294472434032</v>
+        <v>-378.3658830393517</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B12">
-        <v>274.5710273177658</v>
+        <v>277.1915892898883</v>
       </c>
       <c r="C12">
-        <v>123.8252902549937</v>
+        <v>122.1117125978768</v>
       </c>
       <c r="D12">
-        <v>-350.0203047615843</v>
+        <v>-356.6430882093142</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0003636363636363636</v>
       </c>
       <c r="B13">
-        <v>316.2739231227441</v>
+        <v>324.5925791601612</v>
       </c>
       <c r="C13">
-        <v>69.49085522583759</v>
+        <v>67.58693456299238</v>
       </c>
       <c r="D13">
-        <v>-361.4578860400896</v>
+        <v>-369.3024413305487</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0003939393939393939</v>
       </c>
       <c r="B14">
-        <v>344.9307873568442</v>
+        <v>358.30444191718</v>
       </c>
       <c r="C14">
-        <v>23.56756175196273</v>
+        <v>23.23965419819309</v>
       </c>
       <c r="D14">
-        <v>-375.7615371422981</v>
+        <v>-389.7921511877956</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0004242424242424241</v>
       </c>
       <c r="B15">
-        <v>361.0352348659192</v>
+        <v>364.6745130745728</v>
       </c>
       <c r="C15">
-        <v>4.403878810619794</v>
+        <v>6.161244878397295</v>
       </c>
       <c r="D15">
-        <v>-379.3582211005901</v>
+        <v>-387.2067730834493</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0004545454545454544</v>
       </c>
       <c r="B16">
-        <v>379.8349756140886</v>
+        <v>384.6605555920356</v>
       </c>
       <c r="C16">
-        <v>-0.01179934652634218</v>
+        <v>0.106726979114749</v>
       </c>
       <c r="D16">
-        <v>-379.2518870235201</v>
+        <v>-385.9729443120694</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0004848484848484847</v>
       </c>
       <c r="B17">
-        <v>379.9369539856258</v>
+        <v>387.9369014224836</v>
       </c>
       <c r="C17">
-        <v>-4.090993084835099</v>
+        <v>-5.415141098432594</v>
       </c>
       <c r="D17">
-        <v>-361.8482806496461</v>
+        <v>-366.731854464956</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.000515151515151515</v>
       </c>
       <c r="B18">
-        <v>375.5401674600146</v>
+        <v>390.8151409077391</v>
       </c>
       <c r="C18">
-        <v>-22.69486563912837</v>
+        <v>-22.47579976126339</v>
       </c>
       <c r="D18">
-        <v>-345.052139832652</v>
+        <v>-355.0549308200951</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0005454545454545454</v>
       </c>
       <c r="B19">
-        <v>362.0159516205488</v>
+        <v>376.5118963823866</v>
       </c>
       <c r="C19">
-        <v>-68.25893410728321</v>
+        <v>-67.86779423197393</v>
       </c>
       <c r="D19">
-        <v>-317.4854566460431</v>
+        <v>-331.5391267841377</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0005757575757575757</v>
       </c>
       <c r="B20">
-        <v>350.193105003542</v>
+        <v>355.1784070429581</v>
       </c>
       <c r="C20">
-        <v>-123.4171520500061</v>
+        <v>-123.1062559337534</v>
       </c>
       <c r="D20">
-        <v>-274.9488439835789</v>
+        <v>-273.143418304583</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0006060606060606061</v>
       </c>
       <c r="B21">
-        <v>359.6241377135706</v>
+        <v>374.8106919174558</v>
       </c>
       <c r="C21">
-        <v>-155.7777249314423</v>
+        <v>-162.1425069966152</v>
       </c>
       <c r="D21">
-        <v>-228.5093884919177</v>
+        <v>-233.8582274998317</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0006363636363636364</v>
       </c>
       <c r="B22">
-        <v>368.4070394565189</v>
+        <v>379.7373948729799</v>
       </c>
       <c r="C22">
-        <v>-168.2331229486509</v>
+        <v>-172.7578730100764</v>
       </c>
       <c r="D22">
-        <v>-201.1526239058869</v>
+        <v>-208.9534945957778</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0006666666666666668</v>
       </c>
       <c r="B23">
-        <v>379.7441333809547</v>
+        <v>383.6365072741858</v>
       </c>
       <c r="C23">
-        <v>-182.4112933361945</v>
+        <v>-183.7041475837303</v>
       </c>
       <c r="D23">
-        <v>-191.548104553552</v>
+        <v>-195.7987688037497</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0006969696969696971</v>
       </c>
       <c r="B24">
-        <v>380.5151105779588</v>
+        <v>385.9982693338569</v>
       </c>
       <c r="C24">
-        <v>-191.4811113793172</v>
+        <v>-195.7995403847452</v>
       </c>
       <c r="D24">
-        <v>-182.8985703458152</v>
+        <v>-184.1240227527469</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0007272727272727274</v>
       </c>
       <c r="B25">
-        <v>369.4165759890564</v>
+        <v>378.5063987298292</v>
       </c>
       <c r="C25">
-        <v>-200.8703143630603</v>
+        <v>-207.1491886218213</v>
       </c>
       <c r="D25">
-        <v>-168.3123311245429</v>
+        <v>-171.2586653257173</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0007575757575757578</v>
       </c>
       <c r="B26">
-        <v>360.9946172660685</v>
+        <v>377.9719753651639</v>
       </c>
       <c r="C26">
-        <v>-228.2244057798013</v>
+        <v>-234.6132483728335</v>
       </c>
       <c r="D26">
-        <v>-156.0870651576475</v>
+        <v>-163.9850950018673</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0007878787878787881</v>
       </c>
       <c r="B27">
-        <v>351.2934522594599</v>
+        <v>354.8612086895945</v>
       </c>
       <c r="C27">
-        <v>-274.6788810799836</v>
+        <v>-276.294522184065</v>
       </c>
       <c r="D27">
-        <v>-123.9815076771778</v>
+        <v>-123.6638297994459</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0008181818181818185</v>
       </c>
       <c r="B28">
-        <v>363.158836558366</v>
+        <v>369.4843040223336</v>
       </c>
       <c r="C28">
-        <v>-316.9518357881037</v>
+        <v>-325.4766456609494</v>
       </c>
       <c r="D28">
-        <v>-69.38450146216367</v>
+        <v>-68.02418228211101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0008484848484848488</v>
       </c>
       <c r="B29">
-        <v>376.5199737748218</v>
+        <v>392.0080638180576</v>
       </c>
       <c r="C29">
-        <v>-345.4975475660561</v>
+        <v>-359.11058979651</v>
       </c>
       <c r="D29">
-        <v>-23.31490295104208</v>
+        <v>-22.67293328843387</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.0008787878787878792</v>
       </c>
       <c r="B30">
-        <v>379.1604152349801</v>
+        <v>389.2750682718151</v>
       </c>
       <c r="C30">
-        <v>-361.2286222391634</v>
+        <v>-365.188450778239</v>
       </c>
       <c r="D30">
-        <v>-4.170516895481009</v>
+        <v>-5.612348841331911</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.0009090909090909095</v>
       </c>
       <c r="B31">
-        <v>378.911493954315</v>
+        <v>384.7043187578801</v>
       </c>
       <c r="C31">
-        <v>-379.580034118694</v>
+        <v>-384.3101053891131</v>
       </c>
       <c r="D31">
-        <v>0.1366043207318146</v>
+        <v>0.1126329607765292</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.0009393939393939399</v>
       </c>
       <c r="B32">
-        <v>361.3174566537329</v>
+        <v>362.8721176610773</v>
       </c>
       <c r="C32">
-        <v>-379.9033566087474</v>
+        <v>-387.1200403539041</v>
       </c>
       <c r="D32">
-        <v>4.136512254431374</v>
+        <v>5.148414919500452</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.0009696969696969702</v>
       </c>
       <c r="B33">
-        <v>344.4752974766023</v>
+        <v>353.2835412212455</v>
       </c>
       <c r="C33">
-        <v>-375.7074899367073</v>
+        <v>-390.471264615195</v>
       </c>
       <c r="D33">
-        <v>22.74443386545297</v>
+        <v>22.04087433421286</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001</v>
       </c>
       <c r="B34">
-        <v>317.0030430615591</v>
+        <v>332.7119252398376</v>
       </c>
       <c r="C34">
-        <v>-361.9392334682078</v>
+        <v>-375.8963071844581</v>
       </c>
       <c r="D34">
-        <v>68.12138178553197</v>
+        <v>67.83247654133289</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001030303030303031</v>
       </c>
       <c r="B35">
-        <v>274.8255219735445</v>
+        <v>273.6174560454429</v>
       </c>
       <c r="C35">
-        <v>-349.914866652946</v>
+        <v>-353.2699472541371</v>
       </c>
       <c r="D35">
-        <v>123.2473145263917</v>
+        <v>123.2709011873834</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001060606060606061</v>
       </c>
       <c r="B36">
-        <v>228.6608423271188</v>
+        <v>232.5794918171692</v>
       </c>
       <c r="C36">
-        <v>-359.3228230142068</v>
+        <v>-373.3233504534589</v>
       </c>
       <c r="D36">
-        <v>155.6238143692411</v>
+        <v>161.9564535377577</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001090909090909091</v>
       </c>
       <c r="B37">
-        <v>201.1357588071906</v>
+        <v>207.8685227778924</v>
       </c>
       <c r="C37">
-        <v>-368.6460944357326</v>
+        <v>-380.0666380628066</v>
       </c>
       <c r="D37">
-        <v>168.3474592557058</v>
+        <v>172.9339151661855</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001121212121212121</v>
       </c>
       <c r="B38">
-        <v>191.4347309710365</v>
+        <v>195.8883918557939</v>
       </c>
       <c r="C38">
-        <v>-380.0172802293626</v>
+        <v>-383.5323009027205</v>
       </c>
       <c r="D38">
-        <v>182.5182913361576</v>
+        <v>183.3553873343984</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001151515151515152</v>
       </c>
       <c r="B39">
-        <v>183.0318956858362</v>
+        <v>184.9788943615293</v>
       </c>
       <c r="C39">
-        <v>-381.1174827508228</v>
+        <v>-385.2440376123699</v>
       </c>
       <c r="D39">
-        <v>191.8499742688931</v>
+        <v>195.5374653933983</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001181818181818182</v>
       </c>
       <c r="B40">
-        <v>168.2789379396864</v>
+        <v>171.5139705298448</v>
       </c>
       <c r="C40">
-        <v>-368.7537369746224</v>
+        <v>-377.8513473818554</v>
       </c>
       <c r="D40">
-        <v>200.7310038559502</v>
+        <v>207.1086582937257</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001212121212121212</v>
       </c>
       <c r="B41">
-        <v>156.0506216249751</v>
+        <v>164.146034458221</v>
       </c>
       <c r="C41">
-        <v>-360.2121362478991</v>
+        <v>-379.5103935448705</v>
       </c>
       <c r="D41">
-        <v>228.0779747538185</v>
+        <v>235.6959272861999</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001242424242424242</v>
       </c>
       <c r="B42">
-        <v>124.0705951117658</v>
+        <v>122.7095233411829</v>
       </c>
       <c r="C42">
-        <v>-350.4686732856252</v>
+        <v>-356.1180590561113</v>
       </c>
       <c r="D42">
-        <v>274.6398328720285</v>
+        <v>277.3356738337545</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001272727272727273</v>
       </c>
       <c r="B43">
-        <v>69.70136151746343</v>
+        <v>67.58949239302724</v>
       </c>
       <c r="C43">
-        <v>-361.802009407554</v>
+        <v>-370.0521446858825</v>
       </c>
       <c r="D43">
-        <v>316.9743765365563</v>
+        <v>325.9776073782342</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001303030303030303</v>
       </c>
       <c r="B44">
-        <v>23.64635476092306</v>
+        <v>22.61941127158634</v>
       </c>
       <c r="C44">
-        <v>-376.0559110547961</v>
+        <v>-391.8440931181391</v>
       </c>
       <c r="D44">
-        <v>345.8860188255369</v>
+        <v>358.8695552214934</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B45">
-        <v>4.414993407496154</v>
+        <v>5.691334740102194</v>
       </c>
       <c r="C45">
-        <v>-379.7603681745127</v>
+        <v>-387.3600355756474</v>
       </c>
       <c r="D45">
-        <v>362.1216926674032</v>
+        <v>363.1505735856769</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001363636363636363</v>
       </c>
       <c r="B46">
-        <v>0.05336637735536832</v>
+        <v>0.3726531843149111</v>
       </c>
       <c r="C46">
-        <v>-379.8352952331531</v>
+        <v>-386.8309281834864</v>
       </c>
       <c r="D46">
-        <v>380.8680675081464</v>
+        <v>386.9329244354971</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001393939393939394</v>
       </c>
       <c r="B47">
-        <v>-4.052117379041154</v>
+        <v>-5.664410050761626</v>
       </c>
       <c r="C47">
-        <v>-361.6513715782076</v>
+        <v>-366.6392187668387</v>
       </c>
       <c r="D47">
-        <v>380.8802768924161</v>
+        <v>390.0296652268347</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001424242424242424</v>
       </c>
       <c r="B48">
-        <v>-22.99644970460929</v>
+        <v>-23.10061051407748</v>
       </c>
       <c r="C48">
-        <v>-345.0877133561236</v>
+        <v>-354.2357968677288</v>
       </c>
       <c r="D48">
-        <v>376.3874997070286</v>
+        <v>390.2237752353273</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001454545454545454</v>
       </c>
       <c r="B49">
-        <v>-68.64684128848783</v>
+        <v>-68.30579240703455</v>
       </c>
       <c r="C49">
-        <v>-316.844366210709</v>
+        <v>-331.6035485419818</v>
       </c>
       <c r="D49">
-        <v>361.0328789928075</v>
+        <v>374.3269185890603</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001484848484848484</v>
       </c>
       <c r="B50">
-        <v>-123.4149567258219</v>
+        <v>-124.3993159119546</v>
       </c>
       <c r="C50">
-        <v>-274.676520571405</v>
+        <v>-272.7403270592445</v>
       </c>
       <c r="D50">
-        <v>348.9121736345534</v>
+        <v>352.3923397051834</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001515151515151514</v>
       </c>
       <c r="B51">
-        <v>-155.5474715716049</v>
+        <v>-162.4557849563554</v>
       </c>
       <c r="C51">
-        <v>-228.428915003211</v>
+        <v>-232.7400715307114</v>
       </c>
       <c r="D51">
-        <v>358.6584825611303</v>
+        <v>372.6506540853583</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001545454545454545</v>
       </c>
       <c r="B52">
-        <v>-168.2862475714346</v>
+        <v>-172.5243615650803</v>
       </c>
       <c r="C52">
-        <v>-200.7844819262785</v>
+        <v>-207.9908120942124</v>
       </c>
       <c r="D52">
-        <v>367.693103031257</v>
+        <v>379.8898312707481</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001575757575757575</v>
       </c>
       <c r="B53">
-        <v>-182.4434650040939</v>
+        <v>-182.639317522128</v>
       </c>
       <c r="C53">
-        <v>-191.2846212581288</v>
+        <v>-195.8841057160328</v>
       </c>
       <c r="D53">
-        <v>379.6057556079732</v>
+        <v>383.6418134606349</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001606060606060605</v>
       </c>
       <c r="B54">
-        <v>-191.4522689553044</v>
+        <v>-194.7133966080555</v>
       </c>
       <c r="C54">
-        <v>-182.9980028871502</v>
+        <v>-184.4864587552978</v>
       </c>
       <c r="D54">
-        <v>380.9121123910747</v>
+        <v>384.3623271217924</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001636363636363635</v>
       </c>
       <c r="B55">
-        <v>-200.6107250284488</v>
+        <v>-207.2003406411464</v>
       </c>
       <c r="C55">
-        <v>-168.4648601818485</v>
+        <v>-171.1217858888872</v>
       </c>
       <c r="D55">
-        <v>368.9274477294762</v>
+        <v>377.0971713046267</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B56">
-        <v>-228.0620197788242</v>
+        <v>-235.8578062003772</v>
       </c>
       <c r="C56">
-        <v>-155.9656585505958</v>
+        <v>-163.4375695710711</v>
       </c>
       <c r="D56">
-        <v>360.0086515358691</v>
+        <v>378.3554346842603</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001696969696969696</v>
       </c>
       <c r="B57">
-        <v>-274.639923622701</v>
+        <v>-277.2515728393306</v>
       </c>
       <c r="C57">
-        <v>-123.7640683976553</v>
+        <v>-122.037655560425</v>
       </c>
       <c r="D57">
-        <v>350.0209327965978</v>
+        <v>356.6216403307549</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001727272727272726</v>
       </c>
       <c r="B58">
-        <v>-316.3293807903058</v>
+        <v>-324.6632805467772</v>
       </c>
       <c r="C58">
-        <v>-69.40487679958927</v>
+        <v>-67.50604743944393</v>
       </c>
       <c r="D58">
-        <v>361.4849519971829</v>
+        <v>369.3445133906748</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001757575757575756</v>
       </c>
       <c r="B59">
-        <v>-344.9546554867761</v>
+        <v>-358.3216880466231</v>
       </c>
       <c r="C59">
-        <v>-23.5240570927204</v>
+        <v>-23.19792253352174</v>
       </c>
       <c r="D59">
-        <v>375.772453351944</v>
+        <v>389.8012462866213</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001787878787878787</v>
       </c>
       <c r="B60">
-        <v>-361.0641507490762</v>
+        <v>-364.696859768263</v>
       </c>
       <c r="C60">
-        <v>-4.389336244389725</v>
+        <v>-6.14656295432052</v>
       </c>
       <c r="D60">
-        <v>379.3604997977569</v>
+        <v>387.2035150031136</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.001818181818181817</v>
       </c>
       <c r="B61">
-        <v>-379.8496509316955</v>
+        <v>-384.680807365283</v>
       </c>
       <c r="C61">
-        <v>0.0131570907981049</v>
+        <v>-0.1029179351931531</v>
       </c>
       <c r="D61">
-        <v>379.2407111095684</v>
+        <v>385.9559199189011</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.001848484848484847</v>
       </c>
       <c r="B62">
-        <v>-379.9313602589521</v>
+        <v>-387.9370692764976</v>
       </c>
       <c r="C62">
-        <v>4.104873452702107</v>
+        <v>5.428720409921956</v>
       </c>
       <c r="D62">
-        <v>361.8179959610022</v>
+        <v>366.7060527920352</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.001878787878787877</v>
       </c>
       <c r="B63">
-        <v>-375.5308211256888</v>
+        <v>-390.8217771262053</v>
       </c>
       <c r="C63">
-        <v>22.73801007110643</v>
+        <v>22.51855215898428</v>
       </c>
       <c r="D63">
-        <v>345.0302913398882</v>
+        <v>355.0557902668438</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.001909090909090908</v>
       </c>
       <c r="B64">
-        <v>-361.9896453480193</v>
+        <v>-376.4636433259022</v>
       </c>
       <c r="C64">
-        <v>68.34494129816113</v>
+        <v>67.95231897314278</v>
       </c>
       <c r="D64">
-        <v>317.4299806776928</v>
+        <v>331.4512261978348</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.001939393939393938</v>
       </c>
       <c r="B65">
-        <v>-350.1921223049515</v>
+        <v>-355.1843513543389</v>
       </c>
       <c r="C65">
-        <v>123.4804444571095</v>
+        <v>123.1758691804367</v>
       </c>
       <c r="D65">
-        <v>274.8800384118703</v>
+        <v>273.0769705945153</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.001969696969696968</v>
       </c>
       <c r="B66">
-        <v>-359.6423074655562</v>
+        <v>-374.8418065060804</v>
       </c>
       <c r="C66">
-        <v>155.8070927796479</v>
+        <v>162.1806187107964</v>
       </c>
       <c r="D66">
-        <v>228.4530505891069</v>
+        <v>233.8135220765718</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.001999999999999998</v>
       </c>
       <c r="B67">
-        <v>-368.4193708380458</v>
+        <v>-379.7300024420888</v>
       </c>
       <c r="C67">
-        <v>168.249008698049</v>
+        <v>172.7625848952763</v>
       </c>
       <c r="D67">
-        <v>201.1286337945763</v>
+        <v>208.9263447598539</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002030303030303029</v>
       </c>
       <c r="B68">
-        <v>-379.7595422119891</v>
+        <v>-383.6525860326454</v>
       </c>
       <c r="C68">
-        <v>182.4317708212986</v>
+        <v>183.7259932918253</v>
       </c>
       <c r="D68">
-        <v>191.5405134951585</v>
+        <v>195.7882175309964</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002060606060606059</v>
       </c>
       <c r="B69">
-        <v>-380.5017607002491</v>
+        <v>-385.986440424163</v>
       </c>
       <c r="C69">
-        <v>191.4890919112035</v>
+        <v>195.8108004424753</v>
       </c>
       <c r="D69">
-        <v>182.8791167203832</v>
+        <v>184.1000683675803</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002090909090909089</v>
       </c>
       <c r="B70">
-        <v>-369.4045920168439</v>
+        <v>-378.4984414385605</v>
       </c>
       <c r="C70">
-        <v>200.894947061446</v>
+        <v>207.1749267172199</v>
       </c>
       <c r="D70">
-        <v>168.295789003691</v>
+        <v>171.2430515363656</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002121212121212119</v>
       </c>
       <c r="B71">
-        <v>-360.9748818282294</v>
+        <v>-377.9603506578781</v>
       </c>
       <c r="C71">
-        <v>228.278264288628</v>
+        <v>234.6670419986154</v>
       </c>
       <c r="D71">
-        <v>156.0566740046646</v>
+        <v>163.9617859127929</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002151515151515149</v>
       </c>
       <c r="B72">
-        <v>-351.2943942190117</v>
+        <v>-354.8363386613555</v>
       </c>
       <c r="C72">
-        <v>274.7483093545046</v>
+        <v>276.354409193826</v>
       </c>
       <c r="D72">
-        <v>123.9199717567164</v>
+        <v>123.5889724066467</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00218181818181818</v>
       </c>
       <c r="B73">
-        <v>-363.1872600206211</v>
+        <v>-369.5319759935534</v>
       </c>
       <c r="C73">
-        <v>317.0085031312731</v>
+        <v>325.5490340098916</v>
       </c>
       <c r="D73">
-        <v>69.29884586820224</v>
+        <v>67.9406739171929</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00221212121212121</v>
       </c>
       <c r="B74">
-        <v>-376.5248582959348</v>
+        <v>-392.0176895199423</v>
       </c>
       <c r="C74">
-        <v>345.5174348808816</v>
+        <v>359.1276185790457</v>
       </c>
       <c r="D74">
-        <v>23.27051086764867</v>
+        <v>22.63117786749008</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.00224242424242424</v>
       </c>
       <c r="B75">
-        <v>-379.1667665808033</v>
+        <v>-389.2684899685474</v>
       </c>
       <c r="C75">
-        <v>361.2613648413345</v>
+        <v>365.2090348317687</v>
       </c>
       <c r="D75">
-        <v>4.156265707593227</v>
+        <v>5.597991259904678</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00227272727272727</v>
       </c>
       <c r="B76">
-        <v>-378.8992563196434</v>
+        <v>-384.6849731593617</v>
       </c>
       <c r="C76">
-        <v>379.5936257624447</v>
+        <v>384.3308560625754</v>
       </c>
       <c r="D76">
-        <v>-0.1381873096360231</v>
+        <v>-0.1161679060895232</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002303030303030301</v>
       </c>
       <c r="B77">
-        <v>-361.2834144282642</v>
+        <v>-362.8441190401564</v>
       </c>
       <c r="C77">
-        <v>379.8946695714999</v>
+        <v>387.1203032503644</v>
       </c>
       <c r="D77">
-        <v>-4.14959283111327</v>
+        <v>-5.161396200221991</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002333333333333331</v>
       </c>
       <c r="B78">
-        <v>-344.4570413413011</v>
+        <v>-353.2863547100314</v>
       </c>
       <c r="C78">
-        <v>375.7018671883226</v>
+        <v>390.4751008457462</v>
       </c>
       <c r="D78">
-        <v>-22.78787685055817</v>
+        <v>-22.08211448709162</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002363636363636361</v>
       </c>
       <c r="B79">
-        <v>-316.9465432198691</v>
+        <v>-332.6299711251816</v>
       </c>
       <c r="C79">
-        <v>361.9115124750352</v>
+        <v>375.8503415767537</v>
       </c>
       <c r="D79">
-        <v>-68.20725717261217</v>
+        <v>-67.91835378423032</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002393939393939391</v>
       </c>
       <c r="B80">
-        <v>-274.7580904705575</v>
+        <v>-273.5473238080487</v>
       </c>
       <c r="C80">
-        <v>349.9139569263792</v>
+        <v>353.2737177358399</v>
       </c>
       <c r="D80">
-        <v>-123.3101727995552</v>
+        <v>-123.3411281388703</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002424242424242422</v>
       </c>
       <c r="B81">
-        <v>-228.6030383272978</v>
+        <v>-232.5339807599051</v>
       </c>
       <c r="C81">
-        <v>359.3398496756499</v>
+        <v>373.3580086495504</v>
       </c>
       <c r="D81">
-        <v>-155.6530860466642</v>
+        <v>-161.9952859460209</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002454545454545452</v>
       </c>
       <c r="B82">
-        <v>-201.1113630573684</v>
+        <v>-207.8408102738459</v>
       </c>
       <c r="C82">
-        <v>368.6583694355946</v>
+        <v>380.0575706733925</v>
       </c>
       <c r="D82">
-        <v>-168.3626035664441</v>
+        <v>-172.9369262070919</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002484848484848482</v>
       </c>
       <c r="B83">
-        <v>-191.4266564908431</v>
+        <v>-195.8810135937113</v>
       </c>
       <c r="C83">
-        <v>380.0312453997257</v>
+        <v>383.5489334534834</v>
       </c>
       <c r="D83">
-        <v>-182.5382145560487</v>
+        <v>-183.377964354789</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002515151515151512</v>
       </c>
       <c r="B84">
-        <v>-183.0122338206808</v>
+        <v>-184.9548860007533</v>
       </c>
       <c r="C84">
-        <v>381.104192601325</v>
+        <v>385.2309226767723</v>
       </c>
       <c r="D84">
-        <v>-191.8576502378549</v>
+        <v>-195.54840927536</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002545454545454543</v>
       </c>
       <c r="B85">
-        <v>-168.2640365165557</v>
+        <v>-171.4976394353136</v>
       </c>
       <c r="C85">
-        <v>368.7426435943815</v>
+        <v>377.8457774287995</v>
       </c>
       <c r="D85">
-        <v>-200.7566275470411</v>
+        <v>-207.1357550398514</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002575757575757573</v>
       </c>
       <c r="B86">
-        <v>-156.0207267255483</v>
+        <v>-164.1214640835283</v>
       </c>
       <c r="C86">
-        <v>360.1942762090684</v>
+        <v>379.499244882631</v>
       </c>
       <c r="D86">
-        <v>-228.1336889520153</v>
+        <v>-235.7495283433113</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002606060606060603</v>
       </c>
       <c r="B87">
-        <v>-124.0085702673004</v>
+        <v>-122.6345563801077</v>
       </c>
       <c r="C87">
-        <v>350.4672967298985</v>
+        <v>356.0960853915715</v>
       </c>
       <c r="D87">
-        <v>-274.7081989872809</v>
+        <v>-277.3979676726193</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002636363636363633</v>
       </c>
       <c r="B88">
-        <v>-69.6166164319046</v>
+        <v>-67.50670547475983</v>
       </c>
       <c r="C88">
-        <v>361.8304635842151</v>
+        <v>370.0971502344765</v>
       </c>
       <c r="D88">
-        <v>-317.0314007529551</v>
+        <v>-326.0480756077095</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002666666666666664</v>
       </c>
       <c r="B89">
-        <v>-23.60183359219015</v>
+        <v>-22.57734686384093</v>
       </c>
       <c r="C89">
-        <v>376.0639663999332</v>
+        <v>391.8511950143914</v>
       </c>
       <c r="D89">
-        <v>-345.9075646803103</v>
+        <v>-358.8825515003167</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002696969696969694</v>
       </c>
       <c r="B90">
-        <v>-4.400760274186039</v>
+        <v>-5.678390018268587</v>
       </c>
       <c r="C90">
-        <v>379.7652898113298</v>
+        <v>387.3560099102363</v>
       </c>
       <c r="D90">
-        <v>-362.1529023342184</v>
+        <v>-363.1759457097506</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage5500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage5500.xlsx
@@ -408,13 +408,13 @@
         <v>3.03030303030303e-05</v>
       </c>
       <c r="B2">
-        <v>5.649134454761423</v>
+        <v>4.25786622341294</v>
       </c>
       <c r="C2">
-        <v>366.663539086273</v>
+        <v>370.5252690384875</v>
       </c>
       <c r="D2">
-        <v>-390.0294771018317</v>
+        <v>-390.3774605124942</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>6.06060606060606e-05</v>
       </c>
       <c r="B3">
-        <v>23.05822709174156</v>
+        <v>23.63948000733154</v>
       </c>
       <c r="C3">
-        <v>354.2372175693673</v>
+        <v>354.0925549919759</v>
       </c>
       <c r="D3">
-        <v>-390.2229548604258</v>
+        <v>-386.2750596568889</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>9.09090909090909e-05</v>
       </c>
       <c r="B4">
-        <v>68.22091459740263</v>
+        <v>70.34336330423615</v>
       </c>
       <c r="C4">
-        <v>331.689501079866</v>
+        <v>325.2323435592043</v>
       </c>
       <c r="D4">
-        <v>-374.3758825617673</v>
+        <v>-370.8414241025188</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001212121212121212</v>
       </c>
       <c r="B5">
-        <v>124.3297805275791</v>
+        <v>126.3546177378148</v>
       </c>
       <c r="C5">
-        <v>272.8072165550756</v>
+        <v>281.3413756813987</v>
       </c>
       <c r="D5">
-        <v>-352.3859741908597</v>
+        <v>-357.5173216453211</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001515151515151515</v>
       </c>
       <c r="B6">
-        <v>162.4195727589934</v>
+        <v>159.5557589567567</v>
       </c>
       <c r="C6">
-        <v>232.7881004592508</v>
+        <v>234.2868269277405</v>
       </c>
       <c r="D6">
-        <v>-372.6193998175054</v>
+        <v>-367.9085266629007</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0001818181818181818</v>
       </c>
       <c r="B7">
-        <v>172.522062325287</v>
+        <v>172.2580205400821</v>
       </c>
       <c r="C7">
-        <v>208.0170906579543</v>
+        <v>205.6741216044855</v>
       </c>
       <c r="D7">
-        <v>-379.8958817409905</v>
+        <v>-376.4142229548622</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002121212121212121</v>
       </c>
       <c r="B8">
-        <v>182.6157530932045</v>
+        <v>187.4442929604083</v>
       </c>
       <c r="C8">
-        <v>195.8918313177319</v>
+        <v>196.6984635547028</v>
       </c>
       <c r="D8">
-        <v>-383.6253347064692</v>
+        <v>-390.3558826415585</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002424242424242424</v>
       </c>
       <c r="B9">
-        <v>194.7015691951198</v>
+        <v>196.3722187548701</v>
       </c>
       <c r="C9">
-        <v>184.5104346919196</v>
+        <v>187.6390525584021</v>
       </c>
       <c r="D9">
-        <v>-384.374761761999</v>
+        <v>-390.8242155298402</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0002727272727272727</v>
       </c>
       <c r="B10">
-        <v>207.172401682046</v>
+        <v>205.8444555804366</v>
       </c>
       <c r="C10">
-        <v>171.1384096255267</v>
+        <v>172.5735161361791</v>
       </c>
       <c r="D10">
-        <v>-377.1043955865823</v>
+        <v>-378.2058817592103</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.000303030303030303</v>
       </c>
       <c r="B11">
-        <v>235.8046477361228</v>
+        <v>234.1379154855311</v>
       </c>
       <c r="C11">
-        <v>163.4632595250248</v>
+        <v>160.1497943627207</v>
       </c>
       <c r="D11">
-        <v>-378.3658830393517</v>
+        <v>-369.6709225524443</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B12">
-        <v>277.1915892898883</v>
+        <v>281.5328423799451</v>
       </c>
       <c r="C12">
-        <v>122.1117125978768</v>
+        <v>126.6934250291649</v>
       </c>
       <c r="D12">
-        <v>-356.6430882093142</v>
+        <v>-358.8116762754469</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0003636363636363636</v>
       </c>
       <c r="B13">
-        <v>324.5925791601612</v>
+        <v>324.0759438112635</v>
       </c>
       <c r="C13">
-        <v>67.58693456299238</v>
+        <v>71.12972314540549</v>
       </c>
       <c r="D13">
-        <v>-369.3024413305487</v>
+        <v>-370.7464622273939</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0003939393939393939</v>
       </c>
       <c r="B14">
-        <v>358.30444191718</v>
+        <v>353.686650388753</v>
       </c>
       <c r="C14">
-        <v>23.23965419819309</v>
+        <v>24.1500787656726</v>
       </c>
       <c r="D14">
-        <v>-389.7921511877956</v>
+        <v>-385.2679007654152</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0004242424242424241</v>
       </c>
       <c r="B15">
-        <v>364.6745130745728</v>
+        <v>370.0969149541754</v>
       </c>
       <c r="C15">
-        <v>6.161244878397295</v>
+        <v>4.475270641175685</v>
       </c>
       <c r="D15">
-        <v>-387.2067730834493</v>
+        <v>-388.7844851474848</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0004545454545454544</v>
       </c>
       <c r="B16">
-        <v>384.6605555920356</v>
+        <v>390.1373681939162</v>
       </c>
       <c r="C16">
-        <v>0.106726979114749</v>
+        <v>-0.06991737880886195</v>
       </c>
       <c r="D16">
-        <v>-385.9729443120694</v>
+        <v>-389.8301734384464</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0004848484848484847</v>
       </c>
       <c r="B17">
-        <v>387.9369014224836</v>
+        <v>389.2248366634387</v>
       </c>
       <c r="C17">
-        <v>-5.415141098432594</v>
+        <v>-4.225809919416318</v>
       </c>
       <c r="D17">
-        <v>-366.731854464956</v>
+        <v>-370.3446419715351</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.000515151515151515</v>
       </c>
       <c r="B18">
-        <v>390.8151409077391</v>
+        <v>385.4033103755243</v>
       </c>
       <c r="C18">
-        <v>-22.47579976126339</v>
+        <v>-23.37055432750292</v>
       </c>
       <c r="D18">
-        <v>-355.0549308200951</v>
+        <v>-354.051167779285</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0005454545454545454</v>
       </c>
       <c r="B19">
-        <v>376.5118963823866</v>
+        <v>371.8624822111876</v>
       </c>
       <c r="C19">
-        <v>-67.86779423197393</v>
+        <v>-70.0201004413354</v>
       </c>
       <c r="D19">
-        <v>-331.5391267841377</v>
+        <v>-325.9161764952257</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0005757575757575757</v>
       </c>
       <c r="B20">
-        <v>355.1784070429581</v>
+        <v>358.986393666838</v>
       </c>
       <c r="C20">
-        <v>-123.1062559337534</v>
+        <v>-126.4709354185373</v>
       </c>
       <c r="D20">
-        <v>-273.143418304583</v>
+        <v>-281.5957891823122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0006060606060606061</v>
       </c>
       <c r="B21">
-        <v>374.8106919174558</v>
+        <v>368.8724334973622</v>
       </c>
       <c r="C21">
-        <v>-162.1425069966152</v>
+        <v>-159.7591592641595</v>
       </c>
       <c r="D21">
-        <v>-233.8582274998317</v>
+        <v>-234.30630731436</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0006363636363636364</v>
       </c>
       <c r="B22">
-        <v>379.7373948729799</v>
+        <v>377.1679404463866</v>
       </c>
       <c r="C22">
-        <v>-172.7578730100764</v>
+        <v>-172.1491467581508</v>
       </c>
       <c r="D22">
-        <v>-208.9534945957778</v>
+        <v>-205.9385893092995</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0006666666666666668</v>
       </c>
       <c r="B23">
-        <v>383.6365072741858</v>
+        <v>390.4543527870577</v>
       </c>
       <c r="C23">
-        <v>-183.7041475837303</v>
+        <v>-187.5174509739038</v>
       </c>
       <c r="D23">
-        <v>-195.7987688037497</v>
+        <v>-196.8655825810432</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0006969696969696971</v>
       </c>
       <c r="B24">
-        <v>385.9982693338569</v>
+        <v>390.3452354372694</v>
       </c>
       <c r="C24">
-        <v>-195.7995403847452</v>
+        <v>-196.4667482783966</v>
       </c>
       <c r="D24">
-        <v>-184.1240227527469</v>
+        <v>-187.408219906457</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0007272727272727274</v>
       </c>
       <c r="B25">
-        <v>378.5063987298292</v>
+        <v>378.6460886191938</v>
       </c>
       <c r="C25">
-        <v>-207.1491886218213</v>
+        <v>-206.1306320109339</v>
       </c>
       <c r="D25">
-        <v>-171.2586653257173</v>
+        <v>-172.3450567567448</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0007575757575757578</v>
       </c>
       <c r="B26">
-        <v>377.9719753651639</v>
+        <v>370.5902903825548</v>
       </c>
       <c r="C26">
-        <v>-234.6132483728335</v>
+        <v>-234.2900322935926</v>
       </c>
       <c r="D26">
-        <v>-163.9850950018673</v>
+        <v>-160.2111456302984</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0007878787878787881</v>
       </c>
       <c r="B27">
-        <v>354.8612086895945</v>
+        <v>360.1789244996551</v>
       </c>
       <c r="C27">
-        <v>-276.294522184065</v>
+        <v>-281.6223895777882</v>
       </c>
       <c r="D27">
-        <v>-123.6638297994459</v>
+        <v>-126.8719756000005</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0008181818181818185</v>
       </c>
       <c r="B28">
-        <v>369.4843040223336</v>
+        <v>372.3942282205909</v>
       </c>
       <c r="C28">
-        <v>-325.4766456609494</v>
+        <v>-324.7744611067377</v>
       </c>
       <c r="D28">
-        <v>-68.02418228211101</v>
+        <v>-70.99930920055661</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0008484848484848488</v>
       </c>
       <c r="B29">
-        <v>392.0080638180576</v>
+        <v>385.937111893148</v>
       </c>
       <c r="C29">
-        <v>-359.11058979651</v>
+        <v>-354.2455145785819</v>
       </c>
       <c r="D29">
-        <v>-22.67293328843387</v>
+        <v>-23.85960730620231</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.0008787878787878792</v>
       </c>
       <c r="B30">
-        <v>389.2750682718151</v>
+        <v>388.8247710159737</v>
       </c>
       <c r="C30">
-        <v>-365.188450778239</v>
+        <v>-370.4459393476665</v>
       </c>
       <c r="D30">
-        <v>-5.612348841331911</v>
+        <v>-4.302187971439512</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.0009090909090909095</v>
       </c>
       <c r="B31">
-        <v>384.7043187578801</v>
+        <v>389.5221925292368</v>
       </c>
       <c r="C31">
-        <v>-384.3101053891131</v>
+        <v>-389.909181776376</v>
       </c>
       <c r="D31">
-        <v>0.1126329607765292</v>
+        <v>0.1469736628291474</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.0009393939393939399</v>
       </c>
       <c r="B32">
-        <v>362.8721176610773</v>
+        <v>369.7544433860418</v>
       </c>
       <c r="C32">
-        <v>-387.1200403539041</v>
+        <v>-389.0901805234927</v>
       </c>
       <c r="D32">
-        <v>5.148414919500452</v>
+        <v>4.305289350531108</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.0009696969696969702</v>
       </c>
       <c r="B33">
-        <v>353.2835412212455</v>
+        <v>353.2809999397409</v>
       </c>
       <c r="C33">
-        <v>-390.471264615195</v>
+        <v>-385.4416885398092</v>
       </c>
       <c r="D33">
-        <v>22.04087433421286</v>
+        <v>23.48464912605507</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001</v>
       </c>
       <c r="B34">
-        <v>332.7119252398376</v>
+        <v>325.334049988437</v>
       </c>
       <c r="C34">
-        <v>-375.8963071844581</v>
+        <v>-371.6827966031601</v>
       </c>
       <c r="D34">
-        <v>67.83247654133289</v>
+        <v>69.89600518366613</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001030303030303031</v>
       </c>
       <c r="B35">
-        <v>273.6174560454429</v>
+        <v>281.5425366733503</v>
       </c>
       <c r="C35">
-        <v>-353.2699472541371</v>
+        <v>-358.6565333256095</v>
       </c>
       <c r="D35">
-        <v>123.2709011873834</v>
+        <v>126.2236584634389</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001060606060606061</v>
       </c>
       <c r="B36">
-        <v>232.5794918171692</v>
+        <v>234.4315616288575</v>
       </c>
       <c r="C36">
-        <v>-373.3233504534589</v>
+        <v>-368.4370944695481</v>
       </c>
       <c r="D36">
-        <v>161.9564535377577</v>
+        <v>159.6043749019959</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001090909090909091</v>
       </c>
       <c r="B37">
-        <v>207.8685227778924</v>
+        <v>205.8726833784454</v>
       </c>
       <c r="C37">
-        <v>-380.0666380628066</v>
+        <v>-377.3256934638933</v>
       </c>
       <c r="D37">
-        <v>172.9339151661855</v>
+        <v>172.2863067979635</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001121212121212121</v>
       </c>
       <c r="B38">
-        <v>195.8883918557939</v>
+        <v>196.6972832657848</v>
       </c>
       <c r="C38">
-        <v>-383.5323009027205</v>
+        <v>-390.6089497586092</v>
       </c>
       <c r="D38">
-        <v>183.3553873343984</v>
+        <v>187.5794399260104</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001151515151515152</v>
       </c>
       <c r="B39">
-        <v>184.9788943615293</v>
+        <v>187.6840406353216</v>
       </c>
       <c r="C39">
-        <v>-385.2440376123699</v>
+        <v>-390.9052732576197</v>
       </c>
       <c r="D39">
-        <v>195.5374653933983</v>
+        <v>196.7096348895193</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001181818181818182</v>
       </c>
       <c r="B40">
-        <v>171.5139705298448</v>
+        <v>172.3697006597021</v>
       </c>
       <c r="C40">
-        <v>-377.8513473818554</v>
+        <v>-377.7670960112698</v>
       </c>
       <c r="D40">
-        <v>207.1086582937257</v>
+        <v>205.8549527809699</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001212121212121212</v>
       </c>
       <c r="B41">
-        <v>164.146034458221</v>
+        <v>160.1538456526158</v>
       </c>
       <c r="C41">
-        <v>-379.5103935448705</v>
+        <v>-369.7724738892855</v>
       </c>
       <c r="D41">
-        <v>235.6959272861999</v>
+        <v>234.1431163586965</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001242424242424242</v>
       </c>
       <c r="B42">
-        <v>122.7095233411829</v>
+        <v>126.8641326114251</v>
       </c>
       <c r="C42">
-        <v>-356.1180590561113</v>
+        <v>-359.3767863944528</v>
       </c>
       <c r="D42">
-        <v>277.3356738337545</v>
+        <v>281.7205598984281</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001272727272727273</v>
       </c>
       <c r="B43">
-        <v>67.58949239302724</v>
+        <v>71.34561276249472</v>
       </c>
       <c r="C43">
-        <v>-370.0521446858825</v>
+        <v>-371.0718558218148</v>
       </c>
       <c r="D43">
-        <v>325.9776073782342</v>
+        <v>324.8252254288229</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001303030303030303</v>
       </c>
       <c r="B44">
-        <v>22.61941127158634</v>
+        <v>24.24040054104425</v>
       </c>
       <c r="C44">
-        <v>-391.8440931181391</v>
+        <v>-385.3405062118102</v>
       </c>
       <c r="D44">
-        <v>358.8695552214934</v>
+        <v>354.5060572757793</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B45">
-        <v>5.691334740102194</v>
+        <v>4.504042558712355</v>
       </c>
       <c r="C45">
-        <v>-387.3600355756474</v>
+        <v>-389.1905286539975</v>
       </c>
       <c r="D45">
-        <v>363.1505735856769</v>
+        <v>371.2167326066784</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001363636363636363</v>
       </c>
       <c r="B46">
-        <v>0.3726531843149111</v>
+        <v>-0.02052032786734048</v>
       </c>
       <c r="C46">
-        <v>-386.8309281834864</v>
+        <v>-390.5338458511335</v>
       </c>
       <c r="D46">
-        <v>386.9329244354971</v>
+        <v>391.2911071916482</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001393939393939394</v>
       </c>
       <c r="B47">
-        <v>-5.664410050761626</v>
+        <v>-4.272205443448737</v>
       </c>
       <c r="C47">
-        <v>-366.6392187668387</v>
+        <v>-370.4923253032868</v>
       </c>
       <c r="D47">
-        <v>390.0296652268347</v>
+        <v>390.3711661476198</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001424242424242424</v>
       </c>
       <c r="B48">
-        <v>-23.10061051407748</v>
+        <v>-23.68354394223608</v>
       </c>
       <c r="C48">
-        <v>-354.2357968677288</v>
+        <v>-354.0713816211291</v>
       </c>
       <c r="D48">
-        <v>390.2237752353273</v>
+        <v>386.2653378112958</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001454545454545454</v>
       </c>
       <c r="B49">
-        <v>-68.30579240703455</v>
+        <v>-70.43101285986086</v>
       </c>
       <c r="C49">
-        <v>-331.6035485419818</v>
+        <v>-325.1729369675418</v>
       </c>
       <c r="D49">
-        <v>374.3269185890603</v>
+        <v>370.8112239801561</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001484848484848484</v>
       </c>
       <c r="B50">
-        <v>-124.3993159119546</v>
+        <v>-126.4187316418753</v>
       </c>
       <c r="C50">
-        <v>-272.7403270592445</v>
+        <v>-281.2733832717227</v>
       </c>
       <c r="D50">
-        <v>352.3923397051834</v>
+        <v>357.5174571646306</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001515151515151514</v>
       </c>
       <c r="B51">
-        <v>-162.4557849563554</v>
+        <v>-159.5861571138976</v>
       </c>
       <c r="C51">
-        <v>-232.7400715307114</v>
+        <v>-234.2276270082743</v>
       </c>
       <c r="D51">
-        <v>372.6506540853583</v>
+        <v>367.9263077276964</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001545454545454545</v>
       </c>
       <c r="B52">
-        <v>-172.5243615650803</v>
+        <v>-172.2755477347343</v>
       </c>
       <c r="C52">
-        <v>-207.9908120942124</v>
+        <v>-205.6513375410645</v>
       </c>
       <c r="D52">
-        <v>379.8898312707481</v>
+        <v>376.4290877937221</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001575757575757575</v>
       </c>
       <c r="B53">
-        <v>-182.639317522128</v>
+        <v>-187.4650877652215</v>
       </c>
       <c r="C53">
-        <v>-195.8841057160328</v>
+        <v>-196.6915071998056</v>
       </c>
       <c r="D53">
-        <v>383.6418134606349</v>
+        <v>390.3746065310788</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001606060606060605</v>
       </c>
       <c r="B54">
-        <v>-194.7133966080555</v>
+        <v>-196.378896030141</v>
       </c>
       <c r="C54">
-        <v>-184.4864587552978</v>
+        <v>-187.6168222977113</v>
       </c>
       <c r="D54">
-        <v>384.3623271217924</v>
+        <v>390.8065157416135</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001636363636363635</v>
       </c>
       <c r="B55">
-        <v>-207.2003406411464</v>
+        <v>-205.8703438400439</v>
       </c>
       <c r="C55">
-        <v>-171.1217858888872</v>
+        <v>-172.5579183201407</v>
       </c>
       <c r="D55">
-        <v>377.0971713046267</v>
+        <v>378.1937671445422</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B56">
-        <v>-235.8578062003772</v>
+        <v>-234.1933851182969</v>
       </c>
       <c r="C56">
-        <v>-163.4375695710711</v>
+        <v>-160.1177821184725</v>
       </c>
       <c r="D56">
-        <v>378.3554346842603</v>
+        <v>369.6506824936553</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001696969696969696</v>
       </c>
       <c r="B57">
-        <v>-277.2515728393306</v>
+        <v>-281.6030808668711</v>
       </c>
       <c r="C57">
-        <v>-122.037655560425</v>
+        <v>-126.6301697175085</v>
       </c>
       <c r="D57">
-        <v>356.6216403307549</v>
+        <v>358.8112559868738</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001727272727272726</v>
       </c>
       <c r="B58">
-        <v>-324.6632805467772</v>
+        <v>-324.1329750338766</v>
       </c>
       <c r="C58">
-        <v>-67.50604743944393</v>
+        <v>-71.042658384749</v>
       </c>
       <c r="D58">
-        <v>369.3445133906748</v>
+        <v>370.775167925807</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001757575757575756</v>
       </c>
       <c r="B59">
-        <v>-358.3216880466231</v>
+        <v>-353.7095689300249</v>
       </c>
       <c r="C59">
-        <v>-23.19792253352174</v>
+        <v>-24.10505452840717</v>
       </c>
       <c r="D59">
-        <v>389.8012462866213</v>
+        <v>385.2768621414986</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001787878787878787</v>
       </c>
       <c r="B60">
-        <v>-364.696859768263</v>
+        <v>-370.1312784217884</v>
       </c>
       <c r="C60">
-        <v>-6.14656295432052</v>
+        <v>-4.460309791344125</v>
       </c>
       <c r="D60">
-        <v>387.2035150031136</v>
+        <v>388.7914946467088</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.001818181818181817</v>
       </c>
       <c r="B61">
-        <v>-384.680807365283</v>
+        <v>-390.1506952281379</v>
       </c>
       <c r="C61">
-        <v>-0.1029179351931531</v>
+        <v>0.07126207246195559</v>
       </c>
       <c r="D61">
-        <v>385.9559199189011</v>
+        <v>389.8175257159371</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.001848484848484847</v>
       </c>
       <c r="B62">
-        <v>-387.9370692764976</v>
+        <v>-389.2155937845848</v>
       </c>
       <c r="C62">
-        <v>5.428720409921956</v>
+        <v>4.239437518262779</v>
       </c>
       <c r="D62">
-        <v>366.7060527920352</v>
+        <v>370.3097535403685</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.001878787878787877</v>
       </c>
       <c r="B63">
-        <v>-390.8217771262053</v>
+        <v>-385.3964883183405</v>
       </c>
       <c r="C63">
-        <v>22.51855215898428</v>
+        <v>23.41510065973551</v>
       </c>
       <c r="D63">
-        <v>355.0557902668438</v>
+        <v>354.0314321972886</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.001909090909090908</v>
       </c>
       <c r="B64">
-        <v>-376.4636433259022</v>
+        <v>-371.8344799943907</v>
       </c>
       <c r="C64">
-        <v>67.95231897314278</v>
+        <v>70.10808909018625</v>
       </c>
       <c r="D64">
-        <v>331.4512261978348</v>
+        <v>325.8570519231041</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.001939393939393938</v>
       </c>
       <c r="B65">
-        <v>-355.1843513543389</v>
+        <v>-358.9851730767617</v>
       </c>
       <c r="C65">
-        <v>123.1758691804367</v>
+        <v>126.5353020761217</v>
       </c>
       <c r="D65">
-        <v>273.0769705945153</v>
+        <v>281.5261235282716</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.001969696969696968</v>
       </c>
       <c r="B66">
-        <v>-374.8418065060804</v>
+        <v>-368.8938528058059</v>
       </c>
       <c r="C66">
-        <v>162.1806187107964</v>
+        <v>159.7913295679619</v>
       </c>
       <c r="D66">
-        <v>233.8135220765718</v>
+        <v>234.2507624901925</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.001999999999999998</v>
       </c>
       <c r="B67">
-        <v>-379.7300024420888</v>
+        <v>-377.1769700087307</v>
       </c>
       <c r="C67">
-        <v>172.7625848952763</v>
+        <v>172.1631177072801</v>
       </c>
       <c r="D67">
-        <v>208.9263447598539</v>
+        <v>205.91133100969</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002030303030303029</v>
       </c>
       <c r="B68">
-        <v>-383.6525860326454</v>
+        <v>-390.4727336116242</v>
       </c>
       <c r="C68">
-        <v>183.7259932918253</v>
+        <v>187.5394296313936</v>
       </c>
       <c r="D68">
-        <v>195.7882175309964</v>
+        <v>196.8596307317594</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002060606060606059</v>
       </c>
       <c r="B69">
-        <v>-385.986440424163</v>
+        <v>-390.3279776306209</v>
       </c>
       <c r="C69">
-        <v>195.8108004424753</v>
+        <v>196.4736898583404</v>
       </c>
       <c r="D69">
-        <v>184.1000683675803</v>
+        <v>187.3853540975306</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002090909090909089</v>
       </c>
       <c r="B70">
-        <v>-378.4984414385605</v>
+        <v>-378.6363019514555</v>
       </c>
       <c r="C70">
-        <v>207.1749267172199</v>
+        <v>206.1573150081846</v>
       </c>
       <c r="D70">
-        <v>171.2430515363656</v>
+        <v>172.3305787651736</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002121212121212119</v>
       </c>
       <c r="B71">
-        <v>-377.9603506578781</v>
+        <v>-370.5718683749196</v>
       </c>
       <c r="C71">
-        <v>234.6670419986154</v>
+        <v>234.346561830687</v>
       </c>
       <c r="D71">
-        <v>163.9617859127929</v>
+        <v>160.1805237832557</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002151515151515149</v>
       </c>
       <c r="B72">
-        <v>-354.8363386613555</v>
+        <v>-360.17806002978</v>
       </c>
       <c r="C72">
-        <v>276.354409193826</v>
+        <v>281.6918188134295</v>
       </c>
       <c r="D72">
-        <v>123.5889724066467</v>
+        <v>126.8078622067427</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00218181818181818</v>
       </c>
       <c r="B73">
-        <v>-369.5319759935534</v>
+        <v>-372.4228361082548</v>
       </c>
       <c r="C73">
-        <v>325.5490340098916</v>
+        <v>324.8324364982489</v>
       </c>
       <c r="D73">
-        <v>67.9406739171929</v>
+        <v>70.9113628337943</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00221212121212121</v>
       </c>
       <c r="B74">
-        <v>-392.0176895199423</v>
+        <v>-385.9446989609801</v>
       </c>
       <c r="C74">
-        <v>359.1276185790457</v>
+        <v>354.268327382442</v>
       </c>
       <c r="D74">
-        <v>22.63117786749008</v>
+        <v>23.81510245434579</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.00224242424242424</v>
       </c>
       <c r="B75">
-        <v>-389.2684899685474</v>
+        <v>-388.8295201749729</v>
       </c>
       <c r="C75">
-        <v>365.2090348317687</v>
+        <v>370.4775036264101</v>
       </c>
       <c r="D75">
-        <v>5.597991259904678</v>
+        <v>4.287148202191671</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00227272727272727</v>
       </c>
       <c r="B76">
-        <v>-384.6849731593617</v>
+        <v>-389.5103476277708</v>
       </c>
       <c r="C76">
-        <v>384.3308560625754</v>
+        <v>389.9236754860439</v>
       </c>
       <c r="D76">
-        <v>-0.1161679060895232</v>
+        <v>-0.1485956563145041</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002303030303030301</v>
       </c>
       <c r="B77">
-        <v>-362.8441190401564</v>
+        <v>-369.7213791670584</v>
       </c>
       <c r="C77">
-        <v>387.1203032503644</v>
+        <v>389.0836749512611</v>
       </c>
       <c r="D77">
-        <v>-5.161396200221991</v>
+        <v>-4.319827651570115</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002333333333333331</v>
       </c>
       <c r="B78">
-        <v>-353.2863547100314</v>
+        <v>-353.2603239476763</v>
       </c>
       <c r="C78">
-        <v>390.4751008457462</v>
+        <v>385.4338380892547</v>
       </c>
       <c r="D78">
-        <v>-22.08211448709162</v>
+        <v>-23.528449728401</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002363636363636361</v>
       </c>
       <c r="B79">
-        <v>-332.6299711251816</v>
+        <v>-325.2743452215997</v>
       </c>
       <c r="C79">
-        <v>375.8503415767537</v>
+        <v>371.6532547848696</v>
       </c>
       <c r="D79">
-        <v>-67.91835378423032</v>
+        <v>-69.98310078313862</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002393939393939391</v>
       </c>
       <c r="B80">
-        <v>-273.5473238080487</v>
+        <v>-281.4723184991894</v>
       </c>
       <c r="C80">
-        <v>353.2737177358399</v>
+        <v>358.6531346750197</v>
       </c>
       <c r="D80">
-        <v>-123.3411281388703</v>
+        <v>-126.2870841604574</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002424242424242422</v>
       </c>
       <c r="B81">
-        <v>-232.5339807599051</v>
+        <v>-234.3752395503857</v>
       </c>
       <c r="C81">
-        <v>373.3580086495504</v>
+        <v>368.4582718760984</v>
       </c>
       <c r="D81">
-        <v>-161.9952859460209</v>
+        <v>-159.636980098193</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002454545454545452</v>
       </c>
       <c r="B82">
-        <v>-207.8408102738459</v>
+        <v>-205.8470931842649</v>
       </c>
       <c r="C82">
-        <v>380.0575706733925</v>
+        <v>377.3382282777335</v>
       </c>
       <c r="D82">
-        <v>-172.9369262070919</v>
+        <v>-172.3021195445063</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002484848484848482</v>
       </c>
       <c r="B83">
-        <v>-195.8810135937113</v>
+        <v>-196.6921266296645</v>
       </c>
       <c r="C83">
-        <v>383.5489334534834</v>
+        <v>390.6281540100707</v>
       </c>
       <c r="D83">
-        <v>-183.377964354789</v>
+        <v>-187.6022181292253</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002515151515151512</v>
       </c>
       <c r="B84">
-        <v>-184.9548860007533</v>
+        <v>-187.6600929947808</v>
       </c>
       <c r="C84">
-        <v>385.2309226767723</v>
+        <v>390.8852210854745</v>
       </c>
       <c r="D84">
-        <v>-195.54840927536</v>
+        <v>-196.7147265153688</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002545454545454543</v>
       </c>
       <c r="B85">
-        <v>-171.4976394353136</v>
+        <v>-172.353716638849</v>
       </c>
       <c r="C85">
-        <v>377.8457774287995</v>
+        <v>377.7545079038861</v>
       </c>
       <c r="D85">
-        <v>-207.1357550398514</v>
+        <v>-205.8794751156924</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002575757575757573</v>
       </c>
       <c r="B86">
-        <v>-164.1214640835283</v>
+        <v>-160.1240131558934</v>
       </c>
       <c r="C86">
-        <v>379.499244882631</v>
+        <v>369.7553021010138</v>
       </c>
       <c r="D86">
-        <v>-235.7495283433113</v>
+        <v>-234.2006456145065</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002606060606060603</v>
       </c>
       <c r="B87">
-        <v>-122.6345563801077</v>
+        <v>-126.8001765274244</v>
       </c>
       <c r="C87">
-        <v>356.0960853915715</v>
+        <v>359.3763144790681</v>
       </c>
       <c r="D87">
-        <v>-277.3979676726193</v>
+        <v>-281.791679490735</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002636363636363633</v>
       </c>
       <c r="B88">
-        <v>-67.50670547475983</v>
+        <v>-71.25895496137237</v>
       </c>
       <c r="C88">
-        <v>370.0971502344765</v>
+        <v>371.1006976237526</v>
       </c>
       <c r="D88">
-        <v>-326.0480756077095</v>
+        <v>-324.8833070786246</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002666666666666664</v>
       </c>
       <c r="B89">
-        <v>-22.57734686384093</v>
+        <v>-24.19514416451642</v>
       </c>
       <c r="C89">
-        <v>391.8511950143914</v>
+        <v>385.3474848436693</v>
       </c>
       <c r="D89">
-        <v>-358.8825515003167</v>
+        <v>-354.5269490955235</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002696969696969694</v>
       </c>
       <c r="B90">
-        <v>-5.678390018268587</v>
+        <v>-4.489474396352015</v>
       </c>
       <c r="C90">
-        <v>387.3560099102363</v>
+        <v>389.1990175899781</v>
       </c>
       <c r="D90">
-        <v>-363.1759457097506</v>
+        <v>-371.2520451560891</v>
       </c>
     </row>
   </sheetData>
